--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/62.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/62.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1552144583880733</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.550342611537923</v>
+        <v>-1.549600461522229</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01521064791884942</v>
+        <v>0.01498871122274602</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1126579434382546</v>
+        <v>-0.1120850004781011</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1470129448741821</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.546598807057909</v>
+        <v>-1.545841703860563</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02738411180298894</v>
+        <v>0.02719995156579676</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0688262329673943</v>
+        <v>-0.06810848024808118</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1461749054338331</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.631488806307898</v>
+        <v>-1.630835588372558</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03560970745058589</v>
+        <v>-0.03597645390584894</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07575506513935992</v>
+        <v>-0.07504360849653202</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1532741238352574</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.782537190254836</v>
+        <v>-1.782186971000347</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1029257832112524</v>
+        <v>-0.1035349286111958</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07954372916433068</v>
+        <v>-0.07875042352719513</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1630931161982149</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.864268920137935</v>
+        <v>-1.864412942887534</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1416860040732818</v>
+        <v>-0.1425517145899972</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07949650859069166</v>
+        <v>-0.07872681324037563</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1687578854116384</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.685265956596696</v>
+        <v>-1.685480810206754</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1711563640813946</v>
+        <v>-0.1725052984683493</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08662681521018378</v>
+        <v>-0.08606961244124334</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1652615744609442</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.329636798387383</v>
+        <v>-1.329433749920735</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1833376980611406</v>
+        <v>-0.1850470828268732</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03477232927805392</v>
+        <v>-0.03397587560267577</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1514550737873855</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7836717389634655</v>
+        <v>-0.7827651039495964</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1370111672830188</v>
+        <v>-0.138881101999124</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05251624683247657</v>
+        <v>-0.05197321023562784</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1278053180405123</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2181927774832231</v>
+        <v>-0.2165920000368603</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1606671006570468</v>
+        <v>-0.162604718195368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03464663602867032</v>
+        <v>0.03531244611698051</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0947554556116985</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3854939241474723</v>
+        <v>0.3875983877126513</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1777389120466741</v>
+        <v>-0.1797615266175455</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1080399996166788</v>
+        <v>0.1087986768331457</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.05266248275460034</v>
       </c>
       <c r="E12" t="n">
-        <v>1.065962852534337</v>
+        <v>1.068627666906699</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2864831710799747</v>
+        <v>-0.2886679096203401</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1630535419252591</v>
+        <v>0.1636626873252025</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.002149077224057455</v>
       </c>
       <c r="E13" t="n">
-        <v>1.782958468650105</v>
+        <v>1.786064008376431</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4552982958585948</v>
+        <v>-0.4575932157374512</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2730884966380263</v>
+        <v>0.2737668988793069</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.05548776127383934</v>
       </c>
       <c r="E14" t="n">
-        <v>2.458755708284948</v>
+        <v>2.462054852363194</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7020919019255722</v>
+        <v>-0.7045520938121652</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3812173141948983</v>
+        <v>0.3817634988299897</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1194067459161866</v>
       </c>
       <c r="E15" t="n">
-        <v>3.178523172073327</v>
+        <v>3.18196397787249</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.005277104041829</v>
+        <v>-1.007797895664592</v>
       </c>
       <c r="G15" t="n">
-        <v>0.528290512850992</v>
+        <v>0.5287753107403527</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1880174314870841</v>
       </c>
       <c r="E16" t="n">
-        <v>3.863470184860291</v>
+        <v>3.867115613145224</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.241472052355528</v>
+        <v>-1.243938540318606</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6907985430105602</v>
+        <v>0.6913998183148971</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2588839304937386</v>
       </c>
       <c r="E17" t="n">
-        <v>4.542859336129943</v>
+        <v>4.547028912782269</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.550693617801973</v>
+        <v>-1.553333247868394</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8629065157909414</v>
+        <v>0.8635770479366154</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3286703578676167</v>
       </c>
       <c r="E18" t="n">
-        <v>5.236510674657701</v>
+        <v>5.241103662453656</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.757155344914302</v>
+        <v>-1.759724931129825</v>
       </c>
       <c r="G18" t="n">
-        <v>1.021326818292492</v>
+        <v>1.022127994025234</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3952017516768294</v>
       </c>
       <c r="E19" t="n">
-        <v>5.714664629307303</v>
+        <v>5.719301689638654</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.000141398726853</v>
+        <v>-2.002723577095347</v>
       </c>
       <c r="G19" t="n">
-        <v>1.185630804269464</v>
+        <v>1.186299762396017</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4570128770594906</v>
       </c>
       <c r="E20" t="n">
-        <v>6.163538680262469</v>
+        <v>6.168377215041347</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.147475097547522</v>
+        <v>-2.14989279091784</v>
       </c>
       <c r="G20" t="n">
-        <v>1.312307863151743</v>
+        <v>1.312913860513444</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5142448293894123</v>
       </c>
       <c r="E21" t="n">
-        <v>6.444705715900411</v>
+        <v>6.449253057141848</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.339804493979253</v>
+        <v>-2.342229270435617</v>
       </c>
       <c r="G21" t="n">
-        <v>1.423680734117616</v>
+        <v>1.424129329567187</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5665413525974901</v>
       </c>
       <c r="E22" t="n">
-        <v>6.779875773571058</v>
+        <v>6.784685976005753</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.42737898284062</v>
+        <v>-2.429372478057747</v>
       </c>
       <c r="G22" t="n">
-        <v>1.514183685554163</v>
+        <v>1.514529969760849</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6128612964638768</v>
       </c>
       <c r="E23" t="n">
-        <v>6.898149144364713</v>
+        <v>6.902567416038204</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.510373863068563</v>
+        <v>-2.512083247834295</v>
       </c>
       <c r="G23" t="n">
-        <v>1.611883052413297</v>
+        <v>1.612134895472705</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6508915309849052</v>
       </c>
       <c r="E24" t="n">
-        <v>7.02041894970735</v>
+        <v>7.024720743965865</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.553867159428343</v>
+        <v>-2.555337293287638</v>
       </c>
       <c r="G24" t="n">
-        <v>1.612089248918187</v>
+        <v>1.6119349950443</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.680159691895635</v>
       </c>
       <c r="E25" t="n">
-        <v>7.097876430666557</v>
+        <v>7.101802034355081</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.564143930271316</v>
+        <v>-2.565476337457496</v>
       </c>
       <c r="G25" t="n">
-        <v>1.654576747059457</v>
+        <v>1.654250925101347</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7011730632252735</v>
       </c>
       <c r="E26" t="n">
-        <v>7.070428685229316</v>
+        <v>7.074201609063073</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.598086865612604</v>
+        <v>-2.599283907154353</v>
       </c>
       <c r="G26" t="n">
-        <v>1.662157223147641</v>
+        <v>1.66165983310531</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7142707757939207</v>
       </c>
       <c r="E27" t="n">
-        <v>6.988318403747544</v>
+        <v>6.991691526724492</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.481450474705102</v>
+        <v>-2.482207577902448</v>
       </c>
       <c r="G27" t="n">
-        <v>1.625883952497266</v>
+        <v>1.625177217911802</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7196012992331422</v>
       </c>
       <c r="E28" t="n">
-        <v>6.838456043208506</v>
+        <v>6.841423069252158</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.389497851657837</v>
+        <v>-2.389926771868391</v>
       </c>
       <c r="G28" t="n">
-        <v>1.553984333055372</v>
+        <v>1.553109178423929</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7180972591435857</v>
       </c>
       <c r="E29" t="n">
-        <v>6.662379968223325</v>
+        <v>6.665225794794637</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.305715961869244</v>
+        <v>-2.305923732393256</v>
       </c>
       <c r="G29" t="n">
-        <v>1.496010060779625</v>
+        <v>1.49509555567015</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7105487106459194</v>
       </c>
       <c r="E30" t="n">
-        <v>6.453838174842198</v>
+        <v>6.456424288258495</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.250761445277712</v>
+        <v>-2.250638671786251</v>
       </c>
       <c r="G30" t="n">
-        <v>1.42929998238066</v>
+        <v>1.428372885118213</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.697509420534107</v>
       </c>
       <c r="E31" t="n">
-        <v>6.149045112193532</v>
+        <v>6.151119669395406</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.029999754448367</v>
+        <v>-2.029100202520543</v>
       </c>
       <c r="G31" t="n">
-        <v>1.348157722658488</v>
+        <v>1.347077945541276</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6786716705921866</v>
       </c>
       <c r="E32" t="n">
-        <v>5.867525496272419</v>
+        <v>5.869332470223672</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.890760448958986</v>
+        <v>-1.889479197394248</v>
       </c>
       <c r="G32" t="n">
-        <v>1.252386529222947</v>
+        <v>1.251146202155363</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6552660219315088</v>
       </c>
       <c r="E33" t="n">
-        <v>5.485180511517269</v>
+        <v>5.486515279732131</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.813147140106771</v>
+        <v>-1.811684089333522</v>
       </c>
       <c r="G33" t="n">
-        <v>1.170189676689504</v>
+        <v>1.168924165315979</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6288128115216495</v>
       </c>
       <c r="E34" t="n">
-        <v>5.155595073688996</v>
+        <v>5.156764569896123</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.730912511114416</v>
+        <v>-1.729224375606821</v>
       </c>
       <c r="G34" t="n">
-        <v>1.04590355285248</v>
+        <v>1.044497953777159</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.600610179050022</v>
       </c>
       <c r="E35" t="n">
-        <v>4.727721585850224</v>
+        <v>4.728182773452765</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.676511262244022</v>
+        <v>-1.674775906162788</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9751860217706833</v>
+        <v>0.9739582868560688</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5716407119499436</v>
       </c>
       <c r="E36" t="n">
-        <v>4.246912260942988</v>
+        <v>4.246887076637047</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.583165632274406</v>
+        <v>-1.581252412032465</v>
       </c>
       <c r="G36" t="n">
-        <v>0.901384987230258</v>
+        <v>0.9000029984417559</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5436045914441699</v>
       </c>
       <c r="E37" t="n">
-        <v>3.853566456549068</v>
+        <v>3.853338223776479</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.549546157862544</v>
+        <v>-1.547692750347213</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8263798280620376</v>
+        <v>0.8251017245355414</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5169057297018256</v>
       </c>
       <c r="E38" t="n">
-        <v>3.489221954465112</v>
+        <v>3.488826875665666</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.455518977613405</v>
+        <v>-1.453457799574062</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7258063022874088</v>
+        <v>0.7244132953650577</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4917084386186723</v>
       </c>
       <c r="E39" t="n">
-        <v>3.0405588220722</v>
+        <v>3.039601818446449</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.428718941044579</v>
+        <v>-1.426744334056907</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6689716198554836</v>
+        <v>0.6677674952276885</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.466998732532068</v>
       </c>
       <c r="E40" t="n">
-        <v>2.608630660976957</v>
+        <v>2.607158953098541</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.423724578372692</v>
+        <v>-1.421987648272337</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5952744705770641</v>
+        <v>0.5940231253756301</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4430672345631433</v>
       </c>
       <c r="E41" t="n">
-        <v>2.25947072135619</v>
+        <v>2.257855777737735</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.385039910428485</v>
+        <v>-1.383269925926582</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5418711498295744</v>
+        <v>0.5406544330488089</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.419280583926318</v>
       </c>
       <c r="E42" t="n">
-        <v>1.877882839798385</v>
+        <v>1.87597670264249</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.354665276435185</v>
+        <v>-1.353060563941019</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4790142702395527</v>
+        <v>0.4777786652293317</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3950704541101914</v>
       </c>
       <c r="E43" t="n">
-        <v>1.643087981493083</v>
+        <v>1.64134239428756</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.339612931578187</v>
+        <v>-1.338234877837488</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4031150682104335</v>
+        <v>0.4019754783666118</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3695659683339924</v>
       </c>
       <c r="E44" t="n">
-        <v>1.44204324118671</v>
+        <v>1.440595143595113</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.340804464053011</v>
+        <v>-1.339688484496009</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3421627517571857</v>
+        <v>0.3410924187547012</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.342718217106357</v>
       </c>
       <c r="E45" t="n">
-        <v>1.218044580034409</v>
+        <v>1.216620092729632</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.269160622718328</v>
+        <v>-1.268032051008356</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2783504425605345</v>
+        <v>0.2772675174050797</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3144670955805945</v>
       </c>
       <c r="E46" t="n">
-        <v>0.993888516969978</v>
+        <v>0.9925206943535678</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.210248235046286</v>
+        <v>-1.209102349125979</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2500243944536073</v>
+        <v>0.249205904510531</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2844602510868838</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8699549734161258</v>
+        <v>0.8687964953428485</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.153898350503722</v>
+        <v>-1.152828017501237</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1701208877798992</v>
+        <v>0.1691811983644827</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2530984835634348</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7206765739710899</v>
+        <v>0.7197337365174308</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.080168146823755</v>
+        <v>-1.079113554012483</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1224202383088819</v>
+        <v>0.1216867453983558</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2208302057548072</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5521778270358513</v>
+        <v>0.5512538778116478</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.027534521426581</v>
+        <v>-1.026535019284555</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07342102306279145</v>
+        <v>0.07262771742565591</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1886322754445198</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4786144693827423</v>
+        <v>0.477906160778157</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9779049115224098</v>
+        <v>-0.9770423490439371</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06950643750811665</v>
+        <v>0.06891145828026499</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1572784515597585</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3609093194918769</v>
+        <v>0.3602309172505963</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9617609844047893</v>
+        <v>-0.961018834389096</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07048547740156567</v>
+        <v>0.07011558290806001</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1279617191729752</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2428641814708105</v>
+        <v>0.2422534620517458</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9745853051955866</v>
+        <v>-0.9741012943157866</v>
       </c>
       <c r="G52" t="n">
-        <v>0.006991120067417231</v>
+        <v>0.006515766292784423</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1019224903488277</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1709016012640643</v>
+        <v>0.170386897011399</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9237594407592268</v>
+        <v>-0.9230991397378412</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02296269209125531</v>
+        <v>0.02279427204527613</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.08005309683641235</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09451130526909937</v>
+        <v>0.09419492742571793</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9026573534095091</v>
+        <v>-0.9020600131529755</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01339557559166928</v>
+        <v>-0.01359390200095316</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.06265928586193643</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06626238409911593</v>
+        <v>0.06637413945672828</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9238507338682622</v>
+        <v>-0.9234627381548616</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0264992847764975</v>
+        <v>-0.02654807936925782</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.04957064209783423</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.005700196107630215</v>
+        <v>-0.005635661323656887</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9420393118244523</v>
+        <v>-0.9418016349371359</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05542818220688284</v>
+        <v>-0.05545966258930886</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.04061647192353645</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.09670998170123599</v>
+        <v>-0.09665016897462655</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9808081897916489</v>
+        <v>-0.9807916625908752</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09150627448621591</v>
+        <v>-0.09157867936579574</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.03507323787594632</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.127966853412025</v>
+        <v>-0.1277527868115282</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.98631568269708</v>
+        <v>-0.986430586092935</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1146223193016378</v>
+        <v>-0.114644355569336</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.03191964551615929</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1955898629013452</v>
+        <v>-0.1953773703199696</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9893551136203116</v>
+        <v>-0.9895227466567301</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1219745626172333</v>
+        <v>-0.1219808586937185</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.03013507431422802</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2631388934919642</v>
+        <v>-0.262792609285278</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.039273556033242</v>
+        <v>-1.03965919071796</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1274883515991496</v>
+        <v>-0.1274505751402384</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0288982750268159</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3298977664836903</v>
+        <v>-0.3294979656268799</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.019333094795044</v>
+        <v>-1.019776968187251</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1646997376458192</v>
+        <v>-0.1647264959708813</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.0269137734233562</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4610230034027654</v>
+        <v>-0.4606798672343218</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.069274360485233</v>
+        <v>-1.070085767342263</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1880676255206492</v>
+        <v>-0.1880503113103149</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.02337876058829089</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5209632255610168</v>
+        <v>-0.5205099080540823</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.111470665089062</v>
+        <v>-1.112365494959521</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2231761220212611</v>
+        <v>-0.2231776960403823</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.01813316837157486</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.66188830552931</v>
+        <v>-0.6616175742404463</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.156796119706036</v>
+        <v>-1.157778307637728</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2773349719469751</v>
+        <v>-0.2774451532854662</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.01138246017249268</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8296598556305077</v>
+        <v>-0.8298062394087887</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.23219320963546</v>
+        <v>-1.233453998951622</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3450602926791798</v>
+        <v>-0.3452428788972507</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.003849266359835038</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9448394918412463</v>
+        <v>-0.9450480493748186</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.261419596679772</v>
+        <v>-1.262619786259763</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3757190371238746</v>
+        <v>-0.3760118046804365</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.003849776434677956</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.046820190710318</v>
+        <v>-1.047352209173317</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.331982086878121</v>
+        <v>-1.333379815857836</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4487346361227709</v>
+        <v>-0.4489927752586642</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.01076325428739067</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.171169275312193</v>
+        <v>-1.172099520612882</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.409209761045618</v>
+        <v>-1.410923080859154</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4562159490063131</v>
+        <v>-0.45662361995873</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.01575853936543886</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.358313065748799</v>
+        <v>-1.359807596904474</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.470954596126441</v>
+        <v>-1.472746616896041</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4939939819366509</v>
+        <v>-0.494502390112831</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.01738376791857874</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.422726650249788</v>
+        <v>-1.424317196571862</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.571255029583523</v>
+        <v>-1.573177693940192</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5402969024279533</v>
+        <v>-0.5409642865353848</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.01467030874902804</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.491641929437695</v>
+        <v>-1.493538622478863</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.622974149871222</v>
+        <v>-1.624949543868454</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6072714160392975</v>
+        <v>-0.6081182383265572</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.006707420873062031</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.572491421603305</v>
+        <v>-1.574722593707749</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.665784321932358</v>
+        <v>-1.667769947053878</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6075169630222204</v>
+        <v>-0.6083228608123263</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.006608033775344683</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.654467124450206</v>
+        <v>-1.657051663847381</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.667086035745673</v>
+        <v>-1.668913471945503</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6441254997454318</v>
+        <v>-0.6451187058109725</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.02518844280665944</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.715883776544237</v>
+        <v>-1.718769740603142</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.696502092094101</v>
+        <v>-1.698368878771964</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6474970487032579</v>
+        <v>-0.6484650704628577</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.04786126040859184</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.729359741251253</v>
+        <v>-1.732525880713749</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.678906919346641</v>
+        <v>-1.680614730093253</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6690343523400152</v>
+        <v>-0.6701157034763487</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.07371121115865646</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.639958603199617</v>
+        <v>-1.643199508570375</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.758064340956853</v>
+        <v>-1.760061771221784</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6533917503125289</v>
+        <v>-0.6545218960416228</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1014935136721139</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.56985966163249</v>
+        <v>-1.573359493148702</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.763998393044157</v>
+        <v>-1.765984018165677</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6265610203708374</v>
+        <v>-0.6275841327996828</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.12975767395235</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.396815147474936</v>
+        <v>-1.400194566528368</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.698724607093378</v>
+        <v>-1.70040959456273</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5853154233162742</v>
+        <v>-0.5863841822996374</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1574737164155025</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.269496675800726</v>
+        <v>-1.272927250475601</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.659928970801119</v>
+        <v>-1.661351884086775</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6037456132075839</v>
+        <v>-0.6048883510896482</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1831348236429586</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.078475289258796</v>
+        <v>-1.081750823050223</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.61367799294082</v>
+        <v>-1.614834109985415</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5918759350138555</v>
+        <v>-0.5931115400240765</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2061035030157242</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.932649500756333</v>
+        <v>-0.9360092445707494</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.565087235656707</v>
+        <v>-1.565997805718379</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5543686333723814</v>
+        <v>-0.5555837761340255</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2249466957726904</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6986857245470776</v>
+        <v>-0.7017251554703091</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.549073165116594</v>
+        <v>-1.549793278864589</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4974489539079059</v>
+        <v>-0.4985334530824821</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2394905408846423</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4827098388560462</v>
+        <v>-0.4857429737027927</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.425781034354671</v>
+        <v>-1.426133614637843</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4096186869393275</v>
+        <v>-0.4105772645841996</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2491089823354939</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2795464688124026</v>
+        <v>-0.2824001654793207</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.376935285972908</v>
+        <v>-1.377362632164341</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3856400796454328</v>
+        <v>-0.3866002313094263</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2538713811171663</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.08138060947888859</v>
+        <v>-0.08413829097940739</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.242487294688767</v>
+        <v>-1.242713953442234</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3670918383200255</v>
+        <v>-0.3682141139535129</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.253556402750106</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1950155742023909</v>
+        <v>0.1925160318377654</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.123090861252064</v>
+        <v>-1.123116832567565</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3045859649940539</v>
+        <v>-0.3056059293846567</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.24883717168661</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4391837163750388</v>
+        <v>0.4369848116625817</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9774153915756852</v>
+        <v>-0.977136790191215</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2336622374073662</v>
+        <v>-0.2345861866315697</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2407672915451688</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6086142826300874</v>
+        <v>0.606497226911938</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8221423403071757</v>
+        <v>-0.8216685605516642</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2119769759732066</v>
+        <v>-0.2128993511782888</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2299968379929265</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8024421452652967</v>
+        <v>0.8006351713140435</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7108245600105484</v>
+        <v>-0.7102862454710636</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1443240601205818</v>
+        <v>-0.1451031995856256</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2175788357454184</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9467875687841762</v>
+        <v>0.9451553109553875</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5056480195107612</v>
+        <v>-0.504919248657599</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.128291101351013</v>
+        <v>-0.1291583858868497</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2033088235262198</v>
       </c>
       <c r="E91" t="n">
-        <v>1.074519220477727</v>
+        <v>1.073041216522826</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3069595858289754</v>
+        <v>-0.3060734130636831</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1508924419137695</v>
+        <v>-0.1517046357803607</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1873039595610595</v>
       </c>
       <c r="E92" t="n">
-        <v>1.142504254364946</v>
+        <v>1.141210410647237</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1710776631253296</v>
+        <v>-0.1702906535646792</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1114034501985779</v>
+        <v>-0.1121416651664679</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1696278174342299</v>
       </c>
       <c r="E93" t="n">
-        <v>1.169750525354661</v>
+        <v>1.168631397759416</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07145327088084515</v>
+        <v>-0.07081107107935447</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1059463259050284</v>
+        <v>-0.1065995438403682</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1502283011449922</v>
       </c>
       <c r="E94" t="n">
-        <v>1.167206910454639</v>
+        <v>1.166245184771525</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08897705403860616</v>
+        <v>0.08981758024938072</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06359734144643342</v>
+        <v>-0.06417500646395077</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1311737879324369</v>
       </c>
       <c r="E95" t="n">
-        <v>1.188764676339974</v>
+        <v>1.18814293878706</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1731162461677344</v>
+        <v>0.1738686273077162</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09671470375859989</v>
+        <v>-0.0972026496862031</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1135575671816169</v>
       </c>
       <c r="E96" t="n">
-        <v>1.107296594659693</v>
+        <v>1.106662264953808</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2622844293894184</v>
+        <v>0.2630903271795244</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1166323417195388</v>
+        <v>-0.1170840852073521</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.09882529129192816</v>
       </c>
       <c r="E97" t="n">
-        <v>1.062320572287647</v>
+        <v>1.061786979805526</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3139311447975365</v>
+        <v>0.3148110214863437</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08173791181942384</v>
+        <v>-0.08191892401837342</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.08602251730632474</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9360212779944795</v>
+        <v>0.935374356135625</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2905065922343397</v>
+        <v>0.291246381221351</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1381570532033257</v>
+        <v>-0.1384450987025237</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.07409408454694875</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9126486680622856</v>
+        <v>0.9122252569186557</v>
       </c>
       <c r="F99" t="n">
-        <v>0.259199351911669</v>
+        <v>0.2597738688909438</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1222767742885231</v>
+        <v>-0.1224924149081413</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.05753516922075008</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8510242454442425</v>
+        <v>0.8505898161667634</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2540239770408323</v>
+        <v>0.2545308111978912</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1211057040622753</v>
+        <v>-0.1212426437258285</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0358744406342227</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7961822712198838</v>
+        <v>0.7959713526576296</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2204926476997638</v>
+        <v>0.2209380951110919</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1045596150591625</v>
+        <v>-0.1046084096519228</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.002663860324421496</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7894438953615956</v>
+        <v>0.7893478801951963</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1822612972624914</v>
+        <v>0.1825036962071717</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0855360199591224</v>
+        <v>-0.08550453957669639</v>
       </c>
     </row>
   </sheetData>
